--- a/matchInfo.xlsx
+++ b/matchInfo.xlsx
@@ -11,65 +11,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+  <si>
+    <t>slno</t>
+  </si>
+  <si>
+    <t>match no</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>stadium</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>team1</t>
+  </si>
+  <si>
+    <t>team2</t>
+  </si>
+  <si>
+    <t>team1 captain</t>
+  </si>
+  <si>
+    <t>team2 captain</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>1st ing total</t>
+  </si>
+  <si>
+    <t>2nd ing total</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>09.04.2021</t>
+  </si>
+  <si>
+    <t>MA Chidambaram Stadium</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>Rohit Sharma</t>
+  </si>
   <si>
     <t>Virat Kohli</t>
   </si>
   <si>
-    <t>match no</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>stadium</t>
-  </si>
-  <si>
-    <t>team1</t>
-  </si>
-  <si>
-    <t>team2</t>
-  </si>
-  <si>
-    <t>team1 captain</t>
-  </si>
-  <si>
-    <t>team2 captain</t>
-  </si>
-  <si>
-    <t>toss</t>
-  </si>
-  <si>
-    <t>decision</t>
-  </si>
-  <si>
-    <t>1st ing total</t>
-  </si>
-  <si>
-    <t>2nd ing total</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>mom</t>
-  </si>
-  <si>
-    <t>09.04.2021</t>
-  </si>
-  <si>
-    <t>MA Chidambaram Stadium</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>RCB</t>
-  </si>
-  <si>
-    <t>Rohit Sharma</t>
-  </si>
-  <si>
     <t>bowling</t>
   </si>
   <si>
@@ -80,13 +89,43 @@
   </si>
   <si>
     <t>Harshal Patel</t>
+  </si>
+  <si>
+    <t>10.04.21</t>
+  </si>
+  <si>
+    <t>Wankhede Stadium</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>CSK</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>MS Dhoni</t>
+  </si>
+  <si>
+    <t>Rishabh Pant</t>
+  </si>
+  <si>
+    <t>188-7</t>
+  </si>
+  <si>
+    <t>190-3</t>
+  </si>
+  <si>
+    <t>Shikhar Dhawan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -94,6 +133,11 @@
     </font>
     <font/>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -112,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -120,6 +164,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -339,7 +386,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="4" width="23.86"/>
-    <col customWidth="1" min="5" max="5" width="25.57"/>
+    <col customWidth="1" min="5" max="6" width="25.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -355,7 +402,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -384,6 +431,9 @@
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -394,45 +444,90 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>2.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">

--- a/matchInfo.xlsx
+++ b/matchInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>slno</t>
   </si>
@@ -91,7 +91,7 @@
     <t>Harshal Patel</t>
   </si>
   <si>
-    <t>10.04.21</t>
+    <t>10.04.2021</t>
   </si>
   <si>
     <t>Wankhede Stadium</t>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>Shikhar Dhawan</t>
+  </si>
+  <si>
+    <t>11.04.2021</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>SRH</t>
+  </si>
+  <si>
+    <t>Eoin Morgan</t>
+  </si>
+  <si>
+    <t>David Warner</t>
+  </si>
+  <si>
+    <t>187 - 6</t>
+  </si>
+  <si>
+    <t>177 -  5</t>
+  </si>
+  <si>
+    <t>Nitish Rana</t>
   </si>
 </sst>
 </file>
@@ -490,7 +514,7 @@
       <c r="B3" s="2">
         <v>2.0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -533,6 +557,48 @@
     <row r="4">
       <c r="A4" s="2">
         <v>3.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5">

--- a/matchInfo.xlsx
+++ b/matchInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>slno</t>
   </si>
@@ -58,6 +58,9 @@
     <t>mom</t>
   </si>
   <si>
+    <t>team</t>
+  </si>
+  <si>
     <t>09.04.2021</t>
   </si>
   <si>
@@ -143,6 +146,27 @@
   </si>
   <si>
     <t>Nitish Rana</t>
+  </si>
+  <si>
+    <t>12.04.2021</t>
+  </si>
+  <si>
+    <t>PBKS</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>KL Rahul</t>
+  </si>
+  <si>
+    <t>Sanju Samson</t>
+  </si>
+  <si>
+    <t>221 - 6</t>
+  </si>
+  <si>
+    <t>217 - 7</t>
   </si>
 </sst>
 </file>
@@ -459,6 +483,9 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -468,43 +495,46 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -515,43 +545,46 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -562,43 +595,46 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -606,6 +642,51 @@
         <f t="shared" ref="A5:A61" si="1">(A4+1)</f>
         <v>4</v>
       </c>
+      <c r="B5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">

--- a/matchInfo.xlsx
+++ b/matchInfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>slno</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>217 - 7</t>
+  </si>
+  <si>
+    <t>13.04.2021</t>
+  </si>
+  <si>
+    <t>152 - 10</t>
+  </si>
+  <si>
+    <t>142 - 7</t>
+  </si>
+  <si>
+    <t>Rahul Chahar</t>
   </si>
 </sst>
 </file>
@@ -693,6 +705,51 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
